--- a/Filenames.xlsx
+++ b/Filenames.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/120104837ef5190b/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/120104837ef5190b/4. Programs/Git/Word Template Generator/Python-Word-Template-Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{11FA82D2-367D-4E07-8316-B2F76032CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{254518F6-BB5E-44E9-9F4E-9F31C9681B78}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{11FA82D2-367D-4E07-8316-B2F76032CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D86B0CFD-A731-4337-B2BC-403A83E6B52D}"/>
   <bookViews>
-    <workbookView xWindow="44505" yWindow="3915" windowWidth="28800" windowHeight="15345" xr2:uid="{BD469674-CA7A-49C4-9BCD-D31A6FA461CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BD469674-CA7A-49C4-9BCD-D31A6FA461CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
   <si>
     <t>Title</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Footer-Right2</t>
   </si>
   <si>
-    <t>ECOXXXXX</t>
-  </si>
-  <si>
     <t>DDP-001-A1</t>
   </si>
   <si>
@@ -180,16 +177,85 @@
   </si>
   <si>
     <t>The design and development of the [Product Name] will follow a structured, phase-gated process in accordance with the waterfall model required by 21 CFR 820.30. Each phase concludes with a formal design review to ensure all phase-specific requirements have been met before proceeding to the next phase.</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>800DVSD</t>
+  </si>
+  <si>
+    <t>DDP-001-A2</t>
+  </si>
+  <si>
+    <t>DDP-001-A3</t>
+  </si>
+  <si>
+    <t>DDP-001-A4</t>
+  </si>
+  <si>
+    <t>DDP-001-A5</t>
+  </si>
+  <si>
+    <t>DDP-001-A6</t>
+  </si>
+  <si>
+    <t>DDP-001-A7</t>
+  </si>
+  <si>
+    <t>DDP-001-A8</t>
+  </si>
+  <si>
+    <t>DDP-001-A9</t>
+  </si>
+  <si>
+    <t>DDP-001-A10</t>
+  </si>
+  <si>
+    <t>ECO123456</t>
+  </si>
+  <si>
+    <t>ECO123457</t>
+  </si>
+  <si>
+    <t>ECO123458</t>
+  </si>
+  <si>
+    <t>ECO123459</t>
+  </si>
+  <si>
+    <t>ECO123460</t>
+  </si>
+  <si>
+    <t>ECO123461</t>
+  </si>
+  <si>
+    <t>ECO123462</t>
+  </si>
+  <si>
+    <t>ECO123463</t>
+  </si>
+  <si>
+    <t>ECO123464</t>
+  </si>
+  <si>
+    <t>ECO123465</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,8 +281,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,172 +624,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C748FD-3F9E-4001-A07A-B1661A736D85}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" customWidth="1"/>
-    <col min="10" max="10" width="41.28515625" customWidth="1"/>
+    <col min="1" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" t="s">
-        <v>44</v>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" t="s">
-        <v>32</v>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Filenames.xlsx
+++ b/Filenames.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/120104837ef5190b/4. Programs/Git/Word Template Generator/Python-Word-Template-Generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/120104837ef5190b/4. Programs/Git/Word Template Generator/Python-Word-Template-Generator/Python-Word-Template-Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{11FA82D2-367D-4E07-8316-B2F76032CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D86B0CFD-A731-4337-B2BC-403A83E6B52D}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{11FA82D2-367D-4E07-8316-B2F76032CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97D7EF67-E507-4AC1-A296-97544C0CB2F7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BD469674-CA7A-49C4-9BCD-D31A6FA461CD}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="67">
   <si>
     <t>Title</t>
   </si>
@@ -301,10 +301,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,7 +623,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +710,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -814,6 +810,57 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -840,6 +887,57 @@
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -866,6 +964,57 @@
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -892,6 +1041,57 @@
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -918,6 +1118,57 @@
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -944,6 +1195,57 @@
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -970,6 +1272,57 @@
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -996,6 +1349,57 @@
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1021,6 +1425,57 @@
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Filenames.xlsx
+++ b/Filenames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/120104837ef5190b/4. Programs/Git/Word Template Generator/Python-Word-Template-Generator/Python-Word-Template-Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{11FA82D2-367D-4E07-8316-B2F76032CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B40B76A-C24B-48BD-8480-9B321D5EA239}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{11FA82D2-367D-4E07-8316-B2F76032CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70A0718C-A49F-4E7D-883B-AEBC22347931}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BD469674-CA7A-49C4-9BCD-D31A6FA461CD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>Title</t>
   </si>
@@ -80,27 +80,9 @@
     <t>DDP-001-A2</t>
   </si>
   <si>
-    <t>ECO123456</t>
-  </si>
-  <si>
     <t>ECO123457</t>
   </si>
   <si>
-    <t>ECO123458</t>
-  </si>
-  <si>
-    <t>Quality Plan</t>
-  </si>
-  <si>
-    <t>QP-001-A1</t>
-  </si>
-  <si>
-    <t>Regulatory Plan</t>
-  </si>
-  <si>
-    <t>RP-001-A3</t>
-  </si>
-  <si>
     <t>H5</t>
   </si>
   <si>
@@ -149,36 +131,9 @@
     <t>H9-2</t>
   </si>
   <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>Design Review</t>
-  </si>
-  <si>
     <t>Design Transfer</t>
   </si>
   <si>
-    <t>Design Changes</t>
-  </si>
-  <si>
-    <t>Supplier Management</t>
-  </si>
-  <si>
-    <t>Supplier Controls</t>
-  </si>
-  <si>
-    <t>Process Controls</t>
-  </si>
-  <si>
-    <t>Statistical Techniques</t>
-  </si>
-  <si>
-    <t>Issues identified through audits, nonconformances, complaints, or other quality data sources will be managed through the CAPA system.</t>
-  </si>
-  <si>
     <t>Core Team</t>
   </si>
   <si>
@@ -215,30 +170,6 @@
     <t>A Design History File will be maintained for this project to demonstrate that the device was developed in accordance with this plan and the requirements of 21 CFR 820. The DHF index is maintained as a controlled document.</t>
   </si>
   <si>
-    <t>US FDA Classification</t>
-  </si>
-  <si>
-    <t>EU MDR Classification</t>
-  </si>
-  <si>
-    <t>Submission Type</t>
-  </si>
-  <si>
-    <t>Biocompatibility</t>
-  </si>
-  <si>
-    <t>Software Validation</t>
-  </si>
-  <si>
-    <t>Labeling Plan</t>
-  </si>
-  <si>
-    <t>UDI Plan</t>
-  </si>
-  <si>
-    <t>A plan will be established for the assignment, application, and database submission of Unique Device Identifiers (UDI) for all target markets.</t>
-  </si>
-  <si>
     <t>Document</t>
   </si>
   <si>
@@ -302,42 +233,12 @@
     <t>H11-2</t>
   </si>
   <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>Objectives</t>
-  </si>
-  <si>
     <t>Organization &amp; Responsibilities</t>
   </si>
   <si>
-    <t>Core Team Roles</t>
-  </si>
-  <si>
-    <t>Organizational Chart</t>
-  </si>
-  <si>
     <t>Design Controls</t>
   </si>
   <si>
-    <t>Design Input</t>
-  </si>
-  <si>
-    <t>Design Output</t>
-  </si>
-  <si>
-    <t>Design V&amp;V</t>
-  </si>
-  <si>
-    <t>Risk Management</t>
-  </si>
-  <si>
-    <t>Supplier Evaluation</t>
-  </si>
-  <si>
-    <t>P&amp;PC</t>
-  </si>
-  <si>
     <t>Purpose &amp; Scope</t>
   </si>
   <si>
@@ -381,48 +282,6 @@
   </si>
   <si>
     <t>DHF Structure</t>
-  </si>
-  <si>
-    <t>Device Classification</t>
-  </si>
-  <si>
-    <t>US FDA Strategy</t>
-  </si>
-  <si>
-    <t>Predicate Analysis</t>
-  </si>
-  <si>
-    <t>Substantial Equivalence</t>
-  </si>
-  <si>
-    <t>EU MDR Strategy</t>
-  </si>
-  <si>
-    <t>Conformity Route</t>
-  </si>
-  <si>
-    <t>Notified Body</t>
-  </si>
-  <si>
-    <t>Technical Documentation</t>
-  </si>
-  <si>
-    <t>Evidence Plan</t>
-  </si>
-  <si>
-    <t>Electrical &amp; EMC</t>
-  </si>
-  <si>
-    <t>Bench Testing</t>
-  </si>
-  <si>
-    <t>Human Factors</t>
-  </si>
-  <si>
-    <t>Clinical Data</t>
-  </si>
-  <si>
-    <t>Labeling &amp; UDI</t>
   </si>
 </sst>
 </file>
@@ -807,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C748FD-3F9E-4001-A07A-B1661A736D85}">
-  <dimension ref="A1:BV4"/>
+  <dimension ref="A1:BV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -851,25 +710,25 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="N1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="O1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="P1" t="s">
         <v>8</v>
@@ -878,432 +737,217 @@
         <v>9</v>
       </c>
       <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AK1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AL1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AM1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AN1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>35</v>
-      </c>
       <c r="AO1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="AP1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="AQ1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AR1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="AS1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="AT1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
       <c r="L2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2"/>
-      <c r="N2"/>
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
       <c r="O2"/>
       <c r="P2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
+        <v>70</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" t="s">
+        <v>75</v>
+      </c>
       <c r="V2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="W2" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>30</v>
+      </c>
       <c r="AC2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>96</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AI2"/>
+      <c r="AJ2"/>
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2"/>
       <c r="AN2"/>
-      <c r="AO2" t="s">
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="BS2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="BV2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>44</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3"/>
-      <c r="P3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>104</v>
-      </c>
-      <c r="R3" t="s">
-        <v>105</v>
-      </c>
-      <c r="S3" t="s">
-        <v>106</v>
-      </c>
-      <c r="T3" t="s">
-        <v>107</v>
-      </c>
-      <c r="U3" t="s">
-        <v>108</v>
-      </c>
-      <c r="V3" t="s">
-        <v>92</v>
-      </c>
-      <c r="W3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI3"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
-      <c r="AM3"/>
-      <c r="AN3"/>
-      <c r="AO3"/>
-      <c r="AP3"/>
-      <c r="AQ3"/>
-      <c r="AR3"/>
-      <c r="AS3"/>
-      <c r="AT3"/>
-      <c r="BS3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" t="s">
-        <v>115</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>116</v>
-      </c>
-      <c r="O4" t="s">
-        <v>117</v>
-      </c>
-      <c r="P4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>119</v>
-      </c>
-      <c r="R4" t="s">
-        <v>120</v>
-      </c>
-      <c r="S4" t="s">
-        <v>121</v>
-      </c>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4" t="s">
-        <v>122</v>
-      </c>
-      <c r="W4" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
-      <c r="AM4"/>
-      <c r="AN4"/>
-      <c r="AO4"/>
-      <c r="AP4"/>
-      <c r="AQ4"/>
-      <c r="AR4"/>
-      <c r="AS4"/>
-      <c r="AT4"/>
-      <c r="BS4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Filenames.xlsx
+++ b/Filenames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/120104837ef5190b/4. Programs/Git/Word Template Generator/Python-Word-Template-Generator/Python-Word-Template-Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{11FA82D2-367D-4E07-8316-B2F76032CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70A0718C-A49F-4E7D-883B-AEBC22347931}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{11FA82D2-367D-4E07-8316-B2F76032CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F55CFF8C-C629-44A3-93EA-656A4DED615D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BD469674-CA7A-49C4-9BCD-D31A6FA461CD}"/>
+    <workbookView xWindow="6255" yWindow="3315" windowWidth="28800" windowHeight="15345" xr2:uid="{BD469674-CA7A-49C4-9BCD-D31A6FA461CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="140">
   <si>
     <t>Title</t>
   </si>
@@ -56,6 +56,213 @@
     <t>Filename</t>
   </si>
   <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>800DVSD</t>
+  </si>
+  <si>
+    <t>DDP-001-A2</t>
+  </si>
+  <si>
+    <t>ECO123457</t>
+  </si>
+  <si>
+    <t>Design Transfer</t>
+  </si>
+  <si>
+    <t>Resource Allocation</t>
+  </si>
+  <si>
+    <t>Design Inputs</t>
+  </si>
+  <si>
+    <t>Design Outputs</t>
+  </si>
+  <si>
+    <t>Risk Management Plan</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>DHF Structure</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Product and Project Overview</t>
+  </si>
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
+    <t>Intended Use and Indications for Use</t>
+  </si>
+  <si>
+    <t>Project Objectives</t>
+  </si>
+  <si>
+    <t>Regulatory Strategy</t>
+  </si>
+  <si>
+    <t>Roles, Responsibilities, and Resources</t>
+  </si>
+  <si>
+    <t>Project Team and Organization</t>
+  </si>
+  <si>
+    <t>Roles and Responsibilities</t>
+  </si>
+  <si>
+    <t>Design and Development Phases</t>
+  </si>
+  <si>
+    <t>Project Phasing and Milestones</t>
+  </si>
+  <si>
+    <t>Phase-Gate Reviews</t>
+  </si>
+  <si>
+    <t>Project Schedule</t>
+  </si>
+  <si>
+    <t>User Needs</t>
+  </si>
+  <si>
+    <t>Functional and Performance Requirements</t>
+  </si>
+  <si>
+    <t>Regulatory Requirements</t>
+  </si>
+  <si>
+    <t>Applicable Standards</t>
+  </si>
+  <si>
+    <t>Quality System</t>
+  </si>
+  <si>
+    <t>Risk Management</t>
+  </si>
+  <si>
+    <t>Electrical Safety &amp; EMC</t>
+  </si>
+  <si>
+    <t>Software Lifecycle</t>
+  </si>
+  <si>
+    <t>Usability / Human Factors</t>
+  </si>
+  <si>
+    <t>Biocompatibility</t>
+  </si>
+  <si>
+    <t>Labeling and Packaging Requirements</t>
+  </si>
+  <si>
+    <t>Plan for Generating Design Outputs</t>
+  </si>
+  <si>
+    <t>List of Key Design Outputs</t>
+  </si>
+  <si>
+    <t>System and Subsystem Specifications</t>
+  </si>
+  <si>
+    <t>Hardware Design Files</t>
+  </si>
+  <si>
+    <t>Software Documentation</t>
+  </si>
+  <si>
+    <t>Material and Component Specifications</t>
+  </si>
+  <si>
+    <t>Manufacturing and Assembly Procedures</t>
+  </si>
+  <si>
+    <t>Labeling and IFU Drafts</t>
+  </si>
+  <si>
+    <t>Design Verification and Validation</t>
+  </si>
+  <si>
+    <t>Verification and Validation Master Plan</t>
+  </si>
+  <si>
+    <t>Design Verification Plan</t>
+  </si>
+  <si>
+    <t>Hardware Verification Testing</t>
+  </si>
+  <si>
+    <t>Software Verification Testing</t>
+  </si>
+  <si>
+    <t>System-Level Verification</t>
+  </si>
+  <si>
+    <t>Standards Conformance Testing</t>
+  </si>
+  <si>
+    <t>Design Validation Plan</t>
+  </si>
+  <si>
+    <t>Usability / Human Factors Validation</t>
+  </si>
+  <si>
+    <t>Clinical Validation</t>
+  </si>
+  <si>
+    <t>Biocompatibility and Sterilization Validation</t>
+  </si>
+  <si>
+    <t>Integration with Design Process</t>
+  </si>
+  <si>
+    <t>Risk Control Measures</t>
+  </si>
+  <si>
+    <t>Design Transfer Plan</t>
+  </si>
+  <si>
+    <t>Production Equivalency</t>
+  </si>
+  <si>
+    <t>Design Change Control</t>
+  </si>
+  <si>
+    <t>Change Control Process</t>
+  </si>
+  <si>
+    <t>Design History File (DHF)</t>
+  </si>
+  <si>
+    <t>DHF Maintenance</t>
+  </si>
+  <si>
+    <t>Plans and Deliverables</t>
+  </si>
+  <si>
+    <t>Software Development Plan</t>
+  </si>
+  <si>
+    <t>Verification and Validation Plan</t>
+  </si>
+  <si>
+    <t>Usability Engineering Plan</t>
+  </si>
+  <si>
+    <t>Design History File (DHF) Index</t>
+  </si>
+  <si>
+    <t>Regulatory Submission (e.g., 510(k))</t>
+  </si>
+  <si>
     <t>H1</t>
   </si>
   <si>
@@ -65,63 +272,126 @@
     <t>H3</t>
   </si>
   <si>
+    <t>H3-1</t>
+  </si>
+  <si>
+    <t>H3-2</t>
+  </si>
+  <si>
+    <t>H3-3</t>
+  </si>
+  <si>
+    <t>H3-4</t>
+  </si>
+  <si>
     <t>H4</t>
   </si>
   <si>
     <t>H4-1</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>800DVSD</t>
-  </si>
-  <si>
-    <t>DDP-001-A2</t>
-  </si>
-  <si>
-    <t>ECO123457</t>
+    <t>H4-2</t>
+  </si>
+  <si>
+    <t>H4-3</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
+    <t>H5-1</t>
+  </si>
+  <si>
+    <t>H5-2</t>
+  </si>
+  <si>
+    <t>H5-3</t>
+  </si>
+  <si>
+    <t>H5-4</t>
+  </si>
+  <si>
+    <t>H5-5</t>
+  </si>
+  <si>
+    <t>H5-6</t>
+  </si>
+  <si>
     <t>H6</t>
   </si>
   <si>
+    <t>H6-1</t>
+  </si>
+  <si>
+    <t>H6-2</t>
+  </si>
+  <si>
+    <t>H6-3</t>
+  </si>
+  <si>
     <t>H7</t>
   </si>
   <si>
+    <t>H7-1</t>
+  </si>
+  <si>
+    <t>H7-2</t>
+  </si>
+  <si>
+    <t>H7-3</t>
+  </si>
+  <si>
+    <t>H7-4</t>
+  </si>
+  <si>
+    <t>H7-4-1</t>
+  </si>
+  <si>
+    <t>H7-4-2</t>
+  </si>
+  <si>
+    <t>H7-4-3</t>
+  </si>
+  <si>
+    <t>H7-4-4</t>
+  </si>
+  <si>
+    <t>H7-4-5</t>
+  </si>
+  <si>
+    <t>H7-4-6</t>
+  </si>
+  <si>
+    <t>H7-5</t>
+  </si>
+  <si>
     <t>H8</t>
   </si>
   <si>
-    <t>Device Description</t>
-  </si>
-  <si>
-    <t>H4-2</t>
-  </si>
-  <si>
-    <t>H4-3</t>
-  </si>
-  <si>
-    <t>H4-4</t>
-  </si>
-  <si>
-    <t>H4-5</t>
-  </si>
-  <si>
-    <t>H6-1</t>
-  </si>
-  <si>
-    <t>H6-2</t>
-  </si>
-  <si>
     <t>H8-1</t>
   </si>
   <si>
     <t>H8-2</t>
   </si>
   <si>
+    <t>H8-2-1</t>
+  </si>
+  <si>
+    <t>H8-2-2</t>
+  </si>
+  <si>
+    <t>H8-2-3</t>
+  </si>
+  <si>
+    <t>H8-2-4</t>
+  </si>
+  <si>
+    <t>H8-2-5</t>
+  </si>
+  <si>
+    <t>H8-2-6</t>
+  </si>
+  <si>
     <t>H9</t>
   </si>
   <si>
@@ -131,88 +401,28 @@
     <t>H9-2</t>
   </si>
   <si>
-    <t>Design Transfer</t>
-  </si>
-  <si>
-    <t>Core Team</t>
-  </si>
-  <si>
-    <t>Resource Allocation</t>
-  </si>
-  <si>
-    <t>Design Inputs</t>
-  </si>
-  <si>
-    <t>Design Outputs</t>
-  </si>
-  <si>
-    <t>Design Reviews</t>
-  </si>
-  <si>
-    <t>Design Verification</t>
-  </si>
-  <si>
-    <t>Design Validation</t>
-  </si>
-  <si>
-    <t>Risk Management Plan</t>
-  </si>
-  <si>
-    <t>Configuration Management Plan</t>
-  </si>
-  <si>
-    <t>All DHF documents, hardware, and software will be placed under formal configuration management as defined in the Configuration Management Plan.</t>
-  </si>
-  <si>
-    <t>Design History File (DHF) Structure</t>
-  </si>
-  <si>
-    <t>A Design History File will be maintained for this project to demonstrate that the device was developed in accordance with this plan and the requirements of 21 CFR 820. The DHF index is maintained as a controlled document.</t>
-  </si>
-  <si>
-    <t>Document</t>
-  </si>
-  <si>
-    <t>H5-1</t>
-  </si>
-  <si>
-    <t>H5-2</t>
-  </si>
-  <si>
-    <t>H5-3</t>
-  </si>
-  <si>
-    <t>H5-4</t>
-  </si>
-  <si>
-    <t>H5-5</t>
-  </si>
-  <si>
-    <t>H5-6</t>
-  </si>
-  <si>
-    <t>H2-1</t>
-  </si>
-  <si>
-    <t>H2-2</t>
-  </si>
-  <si>
-    <t>H2-3</t>
-  </si>
-  <si>
-    <t>H3-1</t>
-  </si>
-  <si>
-    <t>H3-2</t>
-  </si>
-  <si>
-    <t>H3-3</t>
-  </si>
-  <si>
-    <t>H6-3</t>
-  </si>
-  <si>
-    <t>H6-4</t>
+    <t>H9-2-1</t>
+  </si>
+  <si>
+    <t>H9-2-2</t>
+  </si>
+  <si>
+    <t>H9-2-3</t>
+  </si>
+  <si>
+    <t>H9-2-4</t>
+  </si>
+  <si>
+    <t>H9-3</t>
+  </si>
+  <si>
+    <t>H9-3-1</t>
+  </si>
+  <si>
+    <t>H9-3-2</t>
+  </si>
+  <si>
+    <t>H9-3-3</t>
   </si>
   <si>
     <t>H10</t>
@@ -224,6 +434,9 @@
     <t>H10-2</t>
   </si>
   <si>
+    <t>H10-3</t>
+  </si>
+  <si>
     <t>H11</t>
   </si>
   <si>
@@ -233,55 +446,19 @@
     <t>H11-2</t>
   </si>
   <si>
-    <t>Organization &amp; Responsibilities</t>
-  </si>
-  <si>
-    <t>Design Controls</t>
-  </si>
-  <si>
-    <t>Purpose &amp; Scope</t>
-  </si>
-  <si>
-    <t>Device Overview</t>
-  </si>
-  <si>
-    <t>Intended Use</t>
-  </si>
-  <si>
-    <t>Classification</t>
-  </si>
-  <si>
-    <t>Development Phases</t>
-  </si>
-  <si>
-    <t>Phase 1: Planning</t>
-  </si>
-  <si>
-    <t>Phase 2: Requirements</t>
-  </si>
-  <si>
-    <t>Phase 3: Design</t>
-  </si>
-  <si>
-    <t>Phase 4: V&amp;V</t>
-  </si>
-  <si>
-    <t>Phase 5: Transfer</t>
-  </si>
-  <si>
-    <t>Interfacing Plans</t>
-  </si>
-  <si>
-    <t>Software Dev Plan</t>
-  </si>
-  <si>
-    <t>Usability Plan</t>
-  </si>
-  <si>
-    <t>Config Mgmt Plan</t>
-  </si>
-  <si>
-    <t>DHF Structure</t>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>H12-1</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>H13-1</t>
+  </si>
+  <si>
+    <t>H13-2</t>
   </si>
 </sst>
 </file>
@@ -666,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C748FD-3F9E-4001-A07A-B1661A736D85}">
-  <dimension ref="A1:BV2"/>
+  <dimension ref="A1:BT2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +861,7 @@
     <col min="10" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -692,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -701,253 +878,423 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BR2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H2" t="s">
+      <c r="BS2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BT2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2"/>
-      <c r="P2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="BS2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Filenames.xlsx
+++ b/Filenames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/120104837ef5190b/4. Programs/Git/Word Template Generator/Python-Word-Template-Generator/Python-Word-Template-Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{11FA82D2-367D-4E07-8316-B2F76032CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F55CFF8C-C629-44A3-93EA-656A4DED615D}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{11FA82D2-367D-4E07-8316-B2F76032CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BA9CD39-69C5-4240-B867-6A6BD97F0BF1}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="3315" windowWidth="28800" windowHeight="15345" xr2:uid="{BD469674-CA7A-49C4-9BCD-D31A6FA461CD}"/>
+    <workbookView xWindow="7125" yWindow="2055" windowWidth="28800" windowHeight="15345" xr2:uid="{BD469674-CA7A-49C4-9BCD-D31A6FA461CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
   <si>
     <t>Title</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Design Transfer</t>
   </si>
   <si>
-    <t>Resource Allocation</t>
-  </si>
-  <si>
     <t>Design Inputs</t>
   </si>
   <si>
@@ -113,36 +110,9 @@
     <t>Roles, Responsibilities, and Resources</t>
   </si>
   <si>
-    <t>Project Team and Organization</t>
-  </si>
-  <si>
-    <t>Roles and Responsibilities</t>
-  </si>
-  <si>
     <t>Design and Development Phases</t>
   </si>
   <si>
-    <t>Project Phasing and Milestones</t>
-  </si>
-  <si>
-    <t>Phase-Gate Reviews</t>
-  </si>
-  <si>
-    <t>Project Schedule</t>
-  </si>
-  <si>
-    <t>User Needs</t>
-  </si>
-  <si>
-    <t>Functional and Performance Requirements</t>
-  </si>
-  <si>
-    <t>Regulatory Requirements</t>
-  </si>
-  <si>
-    <t>Applicable Standards</t>
-  </si>
-  <si>
     <t>Quality System</t>
   </si>
   <si>
@@ -296,54 +266,6 @@
     <t>H4-3</t>
   </si>
   <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>H5-1</t>
-  </si>
-  <si>
-    <t>H5-2</t>
-  </si>
-  <si>
-    <t>H5-3</t>
-  </si>
-  <si>
-    <t>H5-4</t>
-  </si>
-  <si>
-    <t>H5-5</t>
-  </si>
-  <si>
-    <t>H5-6</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>H6-1</t>
-  </si>
-  <si>
-    <t>H6-2</t>
-  </si>
-  <si>
-    <t>H6-3</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>H7-1</t>
-  </si>
-  <si>
-    <t>H7-2</t>
-  </si>
-  <si>
-    <t>H7-3</t>
-  </si>
-  <si>
-    <t>H7-4</t>
-  </si>
-  <si>
     <t>H7-4-1</t>
   </si>
   <si>
@@ -459,6 +381,66 @@
   </si>
   <si>
     <t>H13-2</t>
+  </si>
+  <si>
+    <t>Introduction and Objectives</t>
+  </si>
+  <si>
+    <t>H1-1</t>
+  </si>
+  <si>
+    <t>H1-2</t>
+  </si>
+  <si>
+    <t>H1-3</t>
+  </si>
+  <si>
+    <t>H1-3-1</t>
+  </si>
+  <si>
+    <t>H1-3-2</t>
+  </si>
+  <si>
+    <t>H1-3-3</t>
+  </si>
+  <si>
+    <t>H1-3-4</t>
+  </si>
+  <si>
+    <t>Project Organization and Planning</t>
+  </si>
+  <si>
+    <t>H2-1</t>
+  </si>
+  <si>
+    <t>H2-2</t>
+  </si>
+  <si>
+    <t>H2-3</t>
+  </si>
+  <si>
+    <t>H2-3-1</t>
+  </si>
+  <si>
+    <t>H2-3-2</t>
+  </si>
+  <si>
+    <t>H2-3-3</t>
+  </si>
+  <si>
+    <t>H2-3-4</t>
+  </si>
+  <si>
+    <t>H2-3-5</t>
+  </si>
+  <si>
+    <t>H2-3-6</t>
+  </si>
+  <si>
+    <t>Design Process and Controls</t>
+  </si>
+  <si>
+    <t>Design Maintenance and Transfer</t>
   </si>
 </sst>
 </file>
@@ -845,9 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C748FD-3F9E-4001-A07A-B1661A736D85}">
   <dimension ref="A1:BT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -878,205 +858,205 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.25">
@@ -1099,202 +1079,202 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Filenames.xlsx
+++ b/Filenames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/120104837ef5190b/4. Programs/Git/Word Template Generator/Python-Word-Template-Generator/Python-Word-Template-Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{11FA82D2-367D-4E07-8316-B2F76032CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BA9CD39-69C5-4240-B867-6A6BD97F0BF1}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{11FA82D2-367D-4E07-8316-B2F76032CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2292D965-B883-487D-8D05-5F46E1FDBA47}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="2055" windowWidth="28800" windowHeight="15345" xr2:uid="{BD469674-CA7A-49C4-9BCD-D31A6FA461CD}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{BD469674-CA7A-49C4-9BCD-D31A6FA461CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="135">
   <si>
     <t>Title</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>Design Maintenance and Transfer</t>
+  </si>
+  <si>
+    <t>SDP-001-A3</t>
   </si>
 </sst>
 </file>
@@ -825,9 +828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C748FD-3F9E-4001-A07A-B1661A736D85}">
-  <dimension ref="A1:BT2"/>
+  <dimension ref="A1:BT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1277,6 +1282,224 @@
         <v>57</v>
       </c>
     </row>
+    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
